--- a/StructureDefinition-rs-observation-time-of-injury.xlsx
+++ b/StructureDefinition-rs-observation-time-of-injury.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-time-of-injury.xlsx
+++ b/StructureDefinition-rs-observation-time-of-injury.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-time-of-injury.xlsx
+++ b/StructureDefinition-rs-observation-time-of-injury.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Observation - Time of Injury</t>
+    <t>RS Observation - Time of Injury</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-time-of-injury.xlsx
+++ b/StructureDefinition-rs-observation-time-of-injury.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>RS Observation - Time of Injury</t>
+    <t>Road Safety Observation - Time of Injury</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-time-of-injury.xlsx
+++ b/StructureDefinition-rs-observation-time-of-injury.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-time-of-injury.xlsx
+++ b/StructureDefinition-rs-observation-time-of-injury.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-time-of-injury.xlsx
+++ b/StructureDefinition-rs-observation-time-of-injury.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Observation - Time of Injury</t>
+    <t>RS Observation - Time of Injury</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-time-of-injury.xlsx
+++ b/StructureDefinition-rs-observation-time-of-injury.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
